--- a/data/trans_orig/PER_TRAFICO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PER_TRAFICO-Estudios-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de trafico intenso en Andalucia</t>
+          <t>Percepción de trafico intenso en Andalucia (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2608,7 +2608,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de trafico intenso en C.Valenciana</t>
+          <t>Percepción de trafico intenso en C.Valenciana (tasa de respuesta: 93,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4671,7 +4671,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de trafico intenso en Barcelona</t>
+          <t>Percepción de trafico intenso en Barcelona (tasa de respuesta: 99,52%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PER_TRAFICO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PER_TRAFICO-Estudios-trans_orig.xlsx
@@ -740,12 +740,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>137841</t>
+          <t>138455</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>164783</t>
+          <t>165644</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -755,12 +755,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>60,38%</t>
+          <t>60,65%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>72,19%</t>
+          <t>72,56%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -775,12 +775,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>264060</t>
+          <t>263605</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>291875</t>
+          <t>293375</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -790,12 +790,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>66,35%</t>
+          <t>66,23%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>73,33%</t>
+          <t>73,71%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>410153</t>
+          <t>410794</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>450871</t>
+          <t>449885</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>65,49%</t>
+          <t>65,59%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>71,99%</t>
+          <t>71,83%</t>
         </is>
       </c>
     </row>
@@ -853,12 +853,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35876</t>
+          <t>37217</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>58038</t>
+          <t>58946</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,42%</t>
+          <t>25,82%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -888,12 +888,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>65042</t>
+          <t>66251</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>90834</t>
+          <t>91017</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>22,82%</t>
+          <t>22,87%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -923,12 +923,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>108159</t>
+          <t>108031</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>141569</t>
+          <t>142633</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -938,12 +938,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>22,6%</t>
+          <t>22,77%</t>
         </is>
       </c>
     </row>
@@ -966,12 +966,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20508</t>
+          <t>20732</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>41881</t>
+          <t>41011</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -981,12 +981,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -1001,12 +1001,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>33274</t>
+          <t>33366</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>50979</t>
+          <t>52325</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>13,15%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1036,12 +1036,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>59241</t>
+          <t>57635</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>87075</t>
+          <t>85728</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>13,69%</t>
         </is>
       </c>
     </row>
@@ -1196,12 +1196,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>964486</t>
+          <t>962286</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1206757</t>
+          <t>1195279</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>68,43%</t>
+          <t>68,28%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>85,62%</t>
+          <t>84,81%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1231,12 +1231,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>956812</t>
+          <t>950877</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1171925</t>
+          <t>1168387</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1246,12 +1246,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>69,03%</t>
+          <t>68,6%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>84,54%</t>
+          <t>84,29%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1953393</t>
+          <t>1961485</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2273353</t>
+          <t>2302497</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1281,12 +1281,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>69,87%</t>
+          <t>70,16%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>81,32%</t>
+          <t>82,36%</t>
         </is>
       </c>
     </row>
@@ -1309,12 +1309,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>132864</t>
+          <t>134711</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>289964</t>
+          <t>288479</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1324,12 +1324,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>20,47%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1344,12 +1344,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>135337</t>
+          <t>132000</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>266237</t>
+          <t>270918</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>19,54%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1379,12 +1379,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>326897</t>
+          <t>313493</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>534404</t>
+          <t>535553</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1394,12 +1394,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>19,16%</t>
         </is>
       </c>
     </row>
@@ -1422,12 +1422,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>69814</t>
+          <t>73514</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>169289</t>
+          <t>167500</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1437,12 +1437,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1457,12 +1457,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>76121</t>
+          <t>82744</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>169519</t>
+          <t>171983</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1472,12 +1472,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1492,12 +1492,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>189891</t>
+          <t>183813</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>320070</t>
+          <t>315093</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1507,12 +1507,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>11,27%</t>
         </is>
       </c>
     </row>
@@ -1652,12 +1652,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>264207</t>
+          <t>264618</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>307691</t>
+          <t>306437</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1667,12 +1667,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>57,46%</t>
+          <t>57,55%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>66,92%</t>
+          <t>66,65%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1687,12 +1687,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>234690</t>
+          <t>233853</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>271938</t>
+          <t>270694</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1702,12 +1702,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>53,02%</t>
+          <t>52,83%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>61,43%</t>
+          <t>61,15%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1722,12 +1722,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>508271</t>
+          <t>509824</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>567308</t>
+          <t>569135</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1737,12 +1737,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>56,32%</t>
+          <t>56,49%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>62,86%</t>
+          <t>63,07%</t>
         </is>
       </c>
     </row>
@@ -1765,12 +1765,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>83937</t>
+          <t>86041</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>123449</t>
+          <t>122612</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,26%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,85%</t>
+          <t>26,67%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1800,12 +1800,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>95302</t>
+          <t>94537</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>125674</t>
+          <t>126040</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1815,12 +1815,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>21,53%</t>
+          <t>21,36%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>28,39%</t>
+          <t>28,47%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1835,12 +1835,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>190409</t>
+          <t>190551</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>239811</t>
+          <t>238712</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1850,12 +1850,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>21,11%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>26,45%</t>
         </is>
       </c>
     </row>
@@ -1878,12 +1878,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>56118</t>
+          <t>56176</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>88322</t>
+          <t>88201</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>19,18%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1913,12 +1913,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>64379</t>
+          <t>67295</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>96286</t>
+          <t>97068</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1928,12 +1928,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>15,2%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>21,93%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1948,12 +1948,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>129178</t>
+          <t>127959</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>173914</t>
+          <t>173035</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -1963,12 +1963,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>19,17%</t>
         </is>
       </c>
     </row>
@@ -2108,12 +2108,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1392000</t>
+          <t>1388764</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1701818</t>
+          <t>1692339</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2123,12 +2123,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>66,37%</t>
+          <t>66,21%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>81,14%</t>
+          <t>80,68%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1470747</t>
+          <t>1477704</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1748328</t>
+          <t>1769933</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2158,12 +2158,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>66,05%</t>
+          <t>66,36%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>78,51%</t>
+          <t>79,48%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2178,12 +2178,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>2901248</t>
+          <t>2909046</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>3311850</t>
+          <t>3297059</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -2193,12 +2193,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>67,09%</t>
+          <t>67,27%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>76,59%</t>
+          <t>76,25%</t>
         </is>
       </c>
     </row>
@@ -2221,12 +2221,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>246112</t>
+          <t>237818</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>445353</t>
+          <t>444402</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>21,23%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>297806</t>
+          <t>276203</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>468310</t>
+          <t>464157</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2271,12 +2271,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>21,03%</t>
+          <t>20,84%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2291,12 +2291,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>614849</t>
+          <t>644459</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>884235</t>
+          <t>877985</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2306,12 +2306,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>14,9%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>20,3%</t>
         </is>
       </c>
     </row>
@@ -2334,12 +2334,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>149754</t>
+          <t>154079</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>274383</t>
+          <t>274617</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2349,12 +2349,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>13,08%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2369,12 +2369,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>179502</t>
+          <t>190298</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>298681</t>
+          <t>297629</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2384,12 +2384,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2404,12 +2404,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>386996</t>
+          <t>388646</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>551171</t>
+          <t>553790</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2419,12 +2419,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>12,81%</t>
         </is>
       </c>
     </row>
@@ -4866,12 +4866,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15026</t>
+          <t>13918</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>31952</t>
+          <t>31844</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -4881,12 +4881,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>32,96%</t>
+          <t>32,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -4901,12 +4901,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>26275</t>
+          <t>26844</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>44264</t>
+          <t>45084</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -4916,12 +4916,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>23,4%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>38,58%</t>
+          <t>39,29%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -4936,12 +4936,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>45729</t>
+          <t>45011</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>70131</t>
+          <t>69362</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -4951,12 +4951,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>21,6%</t>
+          <t>21,26%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>33,13%</t>
+          <t>32,77%</t>
         </is>
       </c>
     </row>
@@ -4979,12 +4979,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9816</t>
+          <t>9830</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26080</t>
+          <t>27219</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -4994,12 +4994,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,91%</t>
+          <t>28,08%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -5014,12 +5014,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9623</t>
+          <t>10336</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>22660</t>
+          <t>23768</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -5029,12 +5029,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>19,75%</t>
+          <t>20,72%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -5049,12 +5049,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>22831</t>
+          <t>22729</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>43076</t>
+          <t>44831</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -5064,12 +5064,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>20,35%</t>
+          <t>21,18%</t>
         </is>
       </c>
     </row>
@@ -5092,12 +5092,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>48160</t>
+          <t>47419</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>68222</t>
+          <t>68251</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -5107,12 +5107,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>49,69%</t>
+          <t>48,92%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>70,38%</t>
+          <t>70,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -5127,12 +5127,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>54060</t>
+          <t>54351</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>73723</t>
+          <t>73308</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -5142,12 +5142,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>47,12%</t>
+          <t>47,37%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>64,25%</t>
+          <t>63,89%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -5162,12 +5162,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>107999</t>
+          <t>107723</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>137510</t>
+          <t>135801</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -5177,12 +5177,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>51,02%</t>
+          <t>50,89%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>64,97%</t>
+          <t>64,16%</t>
         </is>
       </c>
     </row>
@@ -5322,12 +5322,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>105154</t>
+          <t>105850</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>131162</t>
+          <t>131079</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -5337,12 +5337,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>29,47%</t>
+          <t>29,66%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>36,75%</t>
+          <t>36,73%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -5357,12 +5357,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>91536</t>
+          <t>91534</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>114689</t>
+          <t>114870</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -5377,7 +5377,7 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>32,53%</t>
+          <t>32,58%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -5392,12 +5392,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>204702</t>
+          <t>203145</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>238089</t>
+          <t>239647</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -5407,12 +5407,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>28,85%</t>
+          <t>28,63%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>33,56%</t>
+          <t>33,78%</t>
         </is>
       </c>
     </row>
@@ -5435,12 +5435,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37531</t>
+          <t>37119</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>55365</t>
+          <t>54632</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -5450,12 +5450,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>15,31%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -5470,12 +5470,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28811</t>
+          <t>28660</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>44599</t>
+          <t>44804</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -5485,12 +5485,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -5505,12 +5505,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>70153</t>
+          <t>71593</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>95956</t>
+          <t>94601</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -5520,12 +5520,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>10,09%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>13,33%</t>
         </is>
       </c>
     </row>
@@ -5548,12 +5548,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>178918</t>
+          <t>179202</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>205572</t>
+          <t>205721</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -5563,12 +5563,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>50,14%</t>
+          <t>50,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>57,61%</t>
+          <t>57,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -5583,12 +5583,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>200868</t>
+          <t>201590</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>225733</t>
+          <t>226673</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -5598,12 +5598,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>56,97%</t>
+          <t>57,18%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>64,02%</t>
+          <t>64,29%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -5618,12 +5618,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>387920</t>
+          <t>386344</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>424803</t>
+          <t>423012</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -5633,12 +5633,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>54,68%</t>
+          <t>54,46%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>59,88%</t>
+          <t>59,63%</t>
         </is>
       </c>
     </row>
@@ -5778,12 +5778,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>68495</t>
+          <t>69533</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>89206</t>
+          <t>89705</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -5793,12 +5793,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>30,49%</t>
+          <t>30,96%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>39,72%</t>
+          <t>39,94%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -5813,12 +5813,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>80580</t>
+          <t>79635</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>103210</t>
+          <t>103241</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -5828,47 +5828,47 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>28,13%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
+          <t>36,46%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>170476</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>155442</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>185077</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>33,58%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>30,61%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
           <t>36,45%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>426</t>
-        </is>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>170476</t>
-        </is>
-      </c>
-      <c r="S12" s="2" t="inlineStr">
-        <is>
-          <t>154497</t>
-        </is>
-      </c>
-      <c r="T12" s="2" t="inlineStr">
-        <is>
-          <t>184410</t>
-        </is>
-      </c>
-      <c r="U12" s="2" t="inlineStr">
-        <is>
-          <t>33,58%</t>
-        </is>
-      </c>
-      <c r="V12" s="2" t="inlineStr">
-        <is>
-          <t>30,43%</t>
-        </is>
-      </c>
-      <c r="W12" s="2" t="inlineStr">
-        <is>
-          <t>36,32%</t>
         </is>
       </c>
     </row>
@@ -5891,12 +5891,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18037</t>
+          <t>18073</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>30431</t>
+          <t>30648</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -5906,12 +5906,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>13,65%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -5926,12 +5926,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>27015</t>
+          <t>27028</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>42684</t>
+          <t>42777</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -5941,12 +5941,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -5961,12 +5961,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>48485</t>
+          <t>48836</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>68023</t>
+          <t>69935</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -5976,12 +5976,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>13,77%</t>
         </is>
       </c>
     </row>
@@ -6004,12 +6004,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>111339</t>
+          <t>111250</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>132784</t>
+          <t>132158</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -6019,12 +6019,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>49,57%</t>
+          <t>49,53%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>59,12%</t>
+          <t>58,84%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -6039,12 +6039,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>144675</t>
+          <t>145308</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>169200</t>
+          <t>169437</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -6054,12 +6054,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>51,1%</t>
+          <t>51,32%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>59,76%</t>
+          <t>59,84%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -6074,12 +6074,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>263511</t>
+          <t>263287</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>295158</t>
+          <t>295586</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -6089,12 +6089,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>51,9%</t>
+          <t>51,85%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>58,13%</t>
+          <t>58,22%</t>
         </is>
       </c>
     </row>
@@ -6234,12 +6234,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>202290</t>
+          <t>202153</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>236987</t>
+          <t>238030</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -6249,12 +6249,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>29,82%</t>
+          <t>29,8%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>34,93%</t>
+          <t>35,09%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -6269,12 +6269,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>210816</t>
+          <t>211119</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>248803</t>
+          <t>248012</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -6284,12 +6284,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>28,09%</t>
+          <t>28,13%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>33,15%</t>
+          <t>33,05%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -6304,12 +6304,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>423473</t>
+          <t>421835</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>475673</t>
+          <t>474541</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -6319,12 +6319,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>29,64%</t>
+          <t>29,52%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>33,29%</t>
+          <t>33,21%</t>
         </is>
       </c>
     </row>
@@ -6347,12 +6347,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>74747</t>
+          <t>73388</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>100369</t>
+          <t>101686</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -6362,12 +6362,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>14,99%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -6382,12 +6382,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>73647</t>
+          <t>73925</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>98280</t>
+          <t>99633</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -6397,12 +6397,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -6417,12 +6417,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>153229</t>
+          <t>154050</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>190713</t>
+          <t>192298</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -6432,12 +6432,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>13,46%</t>
         </is>
       </c>
     </row>
@@ -6460,12 +6460,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>354467</t>
+          <t>352476</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>391698</t>
+          <t>392154</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -6475,12 +6475,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>52,25%</t>
+          <t>51,96%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>57,74%</t>
+          <t>57,81%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -6495,12 +6495,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>415570</t>
+          <t>415102</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>454572</t>
+          <t>453519</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -6510,12 +6510,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>55,38%</t>
+          <t>55,31%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>60,57%</t>
+          <t>60,43%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -6530,12 +6530,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>782048</t>
+          <t>780155</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>836732</t>
+          <t>836365</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -6545,12 +6545,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>54,73%</t>
+          <t>54,6%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>58,56%</t>
+          <t>58,53%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/PER_TRAFICO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PER_TRAFICO-Estudios-trans_orig.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>152256</t>
+          <t>168523</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>138455</t>
+          <t>153470</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>165644</t>
+          <t>182287</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>66,7%</t>
+          <t>66,01%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>60,65%</t>
+          <t>60,11%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>72,56%</t>
+          <t>71,4%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>278719</t>
+          <t>303016</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>263605</t>
+          <t>286747</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>293375</t>
+          <t>318319</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>70,03%</t>
+          <t>69,83%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>66,23%</t>
+          <t>66,08%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>73,71%</t>
+          <t>73,36%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>430976</t>
+          <t>471538</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>410794</t>
+          <t>448424</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>449885</t>
+          <t>491323</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>68,82%</t>
+          <t>68,42%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>65,59%</t>
+          <t>65,06%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>71,83%</t>
+          <t>71,29%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>46502</t>
+          <t>54177</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>37217</t>
+          <t>43454</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>58946</t>
+          <t>68350</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,37%</t>
+          <t>21,22%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>26,77%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>77722</t>
+          <t>83935</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>66251</t>
+          <t>71577</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>91017</t>
+          <t>96806</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>16,5%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>22,87%</t>
+          <t>22,31%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>124225</t>
+          <t>138112</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>108031</t>
+          <t>121018</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>142633</t>
+          <t>156550</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>20,04%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>22,77%</t>
+          <t>22,71%</t>
         </is>
       </c>
     </row>
@@ -961,32 +961,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>29515</t>
+          <t>32594</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20732</t>
+          <t>23427</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>41011</t>
+          <t>44541</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>12,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -996,32 +996,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>41563</t>
+          <t>46977</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>33366</t>
+          <t>37894</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>52325</t>
+          <t>58202</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1031,32 +1031,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>71079</t>
+          <t>79570</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>57635</t>
+          <t>64848</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>85728</t>
+          <t>95067</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>11,54%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>13,79%</t>
         </is>
       </c>
     </row>
@@ -1074,17 +1074,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>228274</t>
+          <t>255294</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>228274</t>
+          <t>255294</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>228274</t>
+          <t>255294</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1109,17 +1109,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>398005</t>
+          <t>433927</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>398005</t>
+          <t>433927</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>398005</t>
+          <t>433927</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>626280</t>
+          <t>689220</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>626280</t>
+          <t>689220</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>626280</t>
+          <t>689220</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1053173</t>
+          <t>887441</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>962286</t>
+          <t>847921</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1195279</t>
+          <t>924398</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>74,73%</t>
+          <t>68,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>68,28%</t>
+          <t>65,85%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>84,81%</t>
+          <t>71,79%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1034284</t>
+          <t>856628</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>950877</t>
+          <t>824807</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1168387</t>
+          <t>890492</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>74,61%</t>
+          <t>67,54%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>68,6%</t>
+          <t>65,03%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>84,29%</t>
+          <t>70,21%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>2087457</t>
+          <t>1744070</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1961485</t>
+          <t>1695755</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2302497</t>
+          <t>1795961</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>74,67%</t>
+          <t>68,23%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>70,16%</t>
+          <t>66,34%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>82,36%</t>
+          <t>70,26%</t>
         </is>
       </c>
     </row>
@@ -1304,32 +1304,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>228272</t>
+          <t>254915</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>134711</t>
+          <t>223773</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>288479</t>
+          <t>288950</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>19,8%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>17,38%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>22,44%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1339,32 +1339,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>217129</t>
+          <t>254757</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>132000</t>
+          <t>226575</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>270918</t>
+          <t>282145</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>20,09%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1374,32 +1374,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>445401</t>
+          <t>509671</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>313493</t>
+          <t>470086</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>535553</t>
+          <t>556649</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>15,93%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>18,39%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>19,16%</t>
+          <t>21,78%</t>
         </is>
       </c>
     </row>
@@ -1417,32 +1417,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>127948</t>
+          <t>145331</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>73514</t>
+          <t>119305</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>167500</t>
+          <t>171267</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>11,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>13,3%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1452,32 +1452,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>134754</t>
+          <t>156929</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>82744</t>
+          <t>134598</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>171983</t>
+          <t>179777</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>14,17%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1487,32 +1487,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>262701</t>
+          <t>302260</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>183813</t>
+          <t>269335</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>315093</t>
+          <t>337362</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>13,2%</t>
         </is>
       </c>
     </row>
@@ -1530,17 +1530,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1565,17 +1565,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1386166</t>
+          <t>1268314</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1386166</t>
+          <t>1268314</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1386166</t>
+          <t>1268314</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1600,17 +1600,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>2795559</t>
+          <t>2556001</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>2795559</t>
+          <t>2556001</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>2795559</t>
+          <t>2556001</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1647,32 +1647,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>285279</t>
+          <t>312884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>264618</t>
+          <t>288697</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>306437</t>
+          <t>335129</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>62,04%</t>
+          <t>61,36%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>57,55%</t>
+          <t>56,62%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>66,65%</t>
+          <t>65,73%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1682,32 +1682,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>253109</t>
+          <t>282291</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>233853</t>
+          <t>261879</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>270694</t>
+          <t>301706</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>57,18%</t>
+          <t>57,01%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>52,83%</t>
+          <t>52,89%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>61,15%</t>
+          <t>60,93%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1717,32 +1717,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>538388</t>
+          <t>595175</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>509824</t>
+          <t>563363</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>569135</t>
+          <t>626334</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>59,66%</t>
+          <t>59,22%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>56,49%</t>
+          <t>56,05%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>63,07%</t>
+          <t>62,32%</t>
         </is>
       </c>
     </row>
@@ -1760,32 +1760,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>103625</t>
+          <t>119180</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>86041</t>
+          <t>100233</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>122612</t>
+          <t>141394</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,54%</t>
+          <t>23,37%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>19,66%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,67%</t>
+          <t>27,73%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1795,32 +1795,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>109907</t>
+          <t>123336</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>94537</t>
+          <t>106664</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>126040</t>
+          <t>141536</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>24,83%</t>
+          <t>24,91%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>21,36%</t>
+          <t>21,54%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>28,47%</t>
+          <t>28,58%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1830,32 +1830,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>213532</t>
+          <t>242516</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>190551</t>
+          <t>216263</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>238712</t>
+          <t>270755</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>23,66%</t>
+          <t>24,13%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>21,52%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>26,45%</t>
+          <t>26,94%</t>
         </is>
       </c>
     </row>
@@ -1873,32 +1873,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>70897</t>
+          <t>77815</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>56176</t>
+          <t>61673</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>88201</t>
+          <t>96936</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>15,26%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1908,32 +1908,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>79627</t>
+          <t>89533</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>67295</t>
+          <t>75865</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>97068</t>
+          <t>107071</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>15,32%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>21,62%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1943,32 +1943,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>150524</t>
+          <t>167349</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>127959</t>
+          <t>144169</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>173035</t>
+          <t>191957</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>19,1%</t>
         </is>
       </c>
     </row>
@@ -1986,17 +1986,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,17 +2021,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>442644</t>
+          <t>495160</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>442644</t>
+          <t>495160</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>442644</t>
+          <t>495160</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,17 +2056,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>902445</t>
+          <t>1005039</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>902445</t>
+          <t>1005039</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>902445</t>
+          <t>1005039</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2103,32 +2103,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1490709</t>
+          <t>1368849</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1388764</t>
+          <t>1317366</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1692339</t>
+          <t>1414991</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>71,07%</t>
+          <t>66,68%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>66,21%</t>
+          <t>64,17%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>80,68%</t>
+          <t>68,93%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2138,32 +2138,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1566113</t>
+          <t>1441935</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1477704</t>
+          <t>1399016</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1769933</t>
+          <t>1479289</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>70,33%</t>
+          <t>65,62%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>66,36%</t>
+          <t>63,67%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>79,48%</t>
+          <t>67,32%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2173,32 +2173,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>3056822</t>
+          <t>2810783</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>2909046</t>
+          <t>2741823</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>3297059</t>
+          <t>2866956</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>70,69%</t>
+          <t>66,13%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>67,27%</t>
+          <t>64,51%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>76,25%</t>
+          <t>67,45%</t>
         </is>
       </c>
     </row>
@@ -2216,32 +2216,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>378399</t>
+          <t>428272</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>237818</t>
+          <t>388801</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>444402</t>
+          <t>469570</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>20,86%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>18,94%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>21,19%</t>
+          <t>22,87%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2251,32 +2251,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>404758</t>
+          <t>462027</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>276203</t>
+          <t>427915</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>464157</t>
+          <t>497307</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>21,03%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>20,84%</t>
+          <t>22,63%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2286,32 +2286,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>783158</t>
+          <t>890299</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>644459</t>
+          <t>839068</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>877985</t>
+          <t>943620</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>18,11%</t>
+          <t>20,95%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>19,74%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>20,3%</t>
+          <t>22,2%</t>
         </is>
       </c>
     </row>
@@ -2329,32 +2329,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>228360</t>
+          <t>255740</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>154079</t>
+          <t>223082</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>274617</t>
+          <t>291746</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2364,32 +2364,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>255944</t>
+          <t>293439</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>190298</t>
+          <t>265703</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>297629</t>
+          <t>323588</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>14,73%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2399,32 +2399,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>484304</t>
+          <t>549179</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>388646</t>
+          <t>506939</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>553790</t>
+          <t>596268</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>11,93%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>14,03%</t>
         </is>
       </c>
     </row>
@@ -2442,17 +2442,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2097468</t>
+          <t>2052860</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2097468</t>
+          <t>2052860</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2097468</t>
+          <t>2052860</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2477,17 +2477,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2226816</t>
+          <t>2197401</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2226816</t>
+          <t>2197401</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2226816</t>
+          <t>2197401</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2512,17 +2512,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>4324284</t>
+          <t>4250261</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>4324284</t>
+          <t>4250261</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>4324284</t>
+          <t>4250261</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2608,7 +2608,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de trafico intenso en C.Valenciana (tasa de respuesta: 93,76%)</t>
+          <t>Percepción de trafico intenso en Barcelona (tasa de respuesta: 99,52%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2793,107 +2793,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>163147</t>
+          <t>21956</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>153520</t>
+          <t>13918</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>172618</t>
+          <t>31844</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>77,45%</t>
+          <t>22,65%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>72,88%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>81,95%</t>
+          <t>32,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>197445</t>
+          <t>35172</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>187436</t>
+          <t>26844</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>205643</t>
+          <t>45084</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>79,04%</t>
+          <t>30,65%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>75,04%</t>
+          <t>23,4%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>82,33%</t>
+          <t>39,29%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>909</t>
+          <t>138</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>360592</t>
+          <t>57128</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>346715</t>
+          <t>45011</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>372921</t>
+          <t>69362</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>78,32%</t>
+          <t>26,99%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>75,3%</t>
+          <t>21,26%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>80,99%</t>
+          <t>32,77%</t>
         </is>
       </c>
     </row>
@@ -2906,107 +2906,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35591</t>
+          <t>16503</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27021</t>
+          <t>9830</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>45442</t>
+          <t>27219</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>17,03%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,83%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,57%</t>
+          <t>28,08%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>37297</t>
+          <t>15528</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>30209</t>
+          <t>10336</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>45858</t>
+          <t>23768</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>13,53%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>18,36%</t>
+          <t>20,72%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>61</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>72888</t>
+          <t>32031</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>62154</t>
+          <t>22729</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>84915</t>
+          <t>44831</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>21,18%</t>
         </is>
       </c>
     </row>
@@ -3019,107 +3019,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11911</t>
+          <t>58471</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7009</t>
+          <t>47419</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17496</t>
+          <t>68251</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>60,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>48,92%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>70,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>171</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15046</t>
+          <t>64037</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>10306</t>
+          <t>54351</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>21272</t>
+          <t>73308</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>55,81%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>47,37%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>63,89%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>284</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>26957</t>
+          <t>122508</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>20224</t>
+          <t>107723</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>34529</t>
+          <t>135801</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>57,88%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>50,89%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>64,16%</t>
         </is>
       </c>
     </row>
@@ -3132,22 +3132,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>192</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>210649</t>
+          <t>96930</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>210649</t>
+          <t>96930</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>210649</t>
+          <t>96930</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3167,22 +3167,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>291</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>249788</t>
+          <t>114737</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>249788</t>
+          <t>114737</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>249788</t>
+          <t>114737</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3202,22 +3202,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1139</t>
+          <t>483</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>460437</t>
+          <t>211667</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>460437</t>
+          <t>211667</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>460437</t>
+          <t>211667</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3249,107 +3249,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1158</t>
+          <t>257</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>596109</t>
+          <t>118244</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>576253</t>
+          <t>105850</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>614031</t>
+          <t>131079</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>74,61%</t>
+          <t>33,13%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>72,13%</t>
+          <t>29,66%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>76,85%</t>
+          <t>36,73%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>992</t>
+          <t>242</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>547649</t>
+          <t>102652</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>527046</t>
+          <t>91534</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>567662</t>
+          <t>114870</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>71,45%</t>
+          <t>29,11%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>68,76%</t>
+          <t>25,96%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>74,06%</t>
+          <t>32,58%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2150</t>
+          <t>499</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>1143757</t>
+          <t>220896</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1117384</t>
+          <t>203145</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>1171242</t>
+          <t>239647</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>73,06%</t>
+          <t>31,14%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>71,38%</t>
+          <t>28,63%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>74,82%</t>
+          <t>33,78%</t>
         </is>
       </c>
     </row>
@@ -3362,107 +3362,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>105</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>156194</t>
+          <t>45997</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>139565</t>
+          <t>37119</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>174640</t>
+          <t>54632</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,86%</t>
+          <t>15,31%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>149501</t>
+          <t>36532</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>132095</t>
+          <t>28660</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>167413</t>
+          <t>44804</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>21,84%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>191</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>305695</t>
+          <t>82528</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>283264</t>
+          <t>71593</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>331095</t>
+          <t>94601</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>10,09%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>21,15%</t>
+          <t>13,33%</t>
         </is>
       </c>
     </row>
@@ -3475,107 +3475,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>433</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>46652</t>
+          <t>192618</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>36880</t>
+          <t>179202</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>57447</t>
+          <t>205721</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>53,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>50,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>57,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>475</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>69333</t>
+          <t>213395</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>56340</t>
+          <t>201590</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>83138</t>
+          <t>226673</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>60,52%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>57,18%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>64,29%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>908</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>115985</t>
+          <t>406013</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>99689</t>
+          <t>386344</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>134097</t>
+          <t>423012</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>57,23%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>54,46%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>59,63%</t>
         </is>
       </c>
     </row>
@@ -3588,22 +3588,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1542</t>
+          <t>795</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>798955</t>
+          <t>356858</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>798955</t>
+          <t>356858</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>798955</t>
+          <t>356858</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -3623,22 +3623,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1369</t>
+          <t>803</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>766483</t>
+          <t>352579</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>766483</t>
+          <t>352579</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>766483</t>
+          <t>352579</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -3658,22 +3658,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>2911</t>
+          <t>1598</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>1565437</t>
+          <t>709437</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>1565437</t>
+          <t>709437</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>1565437</t>
+          <t>709437</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -3705,107 +3705,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>211</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>269239</t>
+          <t>78790</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>254402</t>
+          <t>69533</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>283519</t>
+          <t>89705</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>72,6%</t>
+          <t>35,08%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>68,6%</t>
+          <t>30,96%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>76,45%</t>
+          <t>39,94%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>215</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>283084</t>
+          <t>91686</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>266523</t>
+          <t>79635</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>297952</t>
+          <t>103241</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>69,87%</t>
+          <t>32,38%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>65,78%</t>
+          <t>28,13%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>73,54%</t>
+          <t>36,46%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>965</t>
+          <t>426</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>552323</t>
+          <t>170476</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>530365</t>
+          <t>155442</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>571765</t>
+          <t>185077</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>71,17%</t>
+          <t>33,58%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>68,34%</t>
+          <t>30,61%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>73,68%</t>
+          <t>36,45%</t>
         </is>
       </c>
     </row>
@@ -3818,107 +3818,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>78654</t>
+          <t>23739</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>66134</t>
+          <t>18073</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>92685</t>
+          <t>30648</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,99%</t>
+          <t>13,65%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>97</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>83908</t>
+          <t>33992</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>71234</t>
+          <t>27028</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>98663</t>
+          <t>42777</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>20,71%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>24,35%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>170</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>162562</t>
+          <t>57731</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>144599</t>
+          <t>48836</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>181778</t>
+          <t>69935</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>20,95%</t>
+          <t>11,37%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>13,77%</t>
         </is>
       </c>
     </row>
@@ -3931,107 +3931,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>359</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>22981</t>
+          <t>122081</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>15321</t>
+          <t>111250</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>31702</t>
+          <t>132158</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>54,35%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>49,53%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>58,84%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>450</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>38178</t>
+          <t>157454</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>29143</t>
+          <t>145308</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>48742</t>
+          <t>169437</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>55,61%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>51,32%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>59,84%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>809</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>61159</t>
+          <t>279535</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>48833</t>
+          <t>263287</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>75601</t>
+          <t>295586</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>55,05%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>51,85%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>58,22%</t>
         </is>
       </c>
     </row>
@@ -4044,22 +4044,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>643</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>370874</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>370874</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>370874</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4079,22 +4079,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>762</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>405171</t>
+          <t>283131</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>405171</t>
+          <t>283131</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>405171</t>
+          <t>283131</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4114,22 +4114,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1325</t>
+          <t>1405</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>776045</t>
+          <t>507741</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>776045</t>
+          <t>507741</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>776045</t>
+          <t>507741</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4161,107 +4161,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2074</t>
+          <t>520</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1028495</t>
+          <t>218990</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1001656</t>
+          <t>202153</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1053529</t>
+          <t>238030</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>74,5%</t>
+          <t>32,28%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>72,56%</t>
+          <t>29,8%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>76,32%</t>
+          <t>35,09%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>543</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1028178</t>
+          <t>229510</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>998821</t>
+          <t>211119</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1053490</t>
+          <t>248012</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>72,33%</t>
+          <t>30,58%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>70,27%</t>
+          <t>28,13%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>74,11%</t>
+          <t>33,05%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>4024</t>
+          <t>1063</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>2056673</t>
+          <t>448500</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>2019366</t>
+          <t>421835</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>2093926</t>
+          <t>474541</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>73,4%</t>
+          <t>31,39%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>72,07%</t>
+          <t>29,52%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>74,73%</t>
+          <t>33,21%</t>
         </is>
       </c>
     </row>
@@ -4274,107 +4274,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>205</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>270439</t>
+          <t>86239</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>246930</t>
+          <t>73388</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>293820</t>
+          <t>101686</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,59%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,89%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>14,99%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>217</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>270706</t>
+          <t>86051</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>248800</t>
+          <t>73925</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>294213</t>
+          <t>99633</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>20,7%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>422</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>541145</t>
+          <t>172290</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>508818</t>
+          <t>154050</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>572346</t>
+          <t>192298</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>13,46%</t>
         </is>
       </c>
     </row>
@@ -4387,107 +4387,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>905</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>81544</t>
+          <t>373170</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>352476</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>96965</t>
+          <t>392154</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>55,01%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>51,96%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>57,81%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>1096</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>122558</t>
+          <t>434886</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>106325</t>
+          <t>415102</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>140089</t>
+          <t>453519</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>57,95%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>55,31%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>60,43%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>204101</t>
+          <t>808056</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>181386</t>
+          <t>780155</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>229330</t>
+          <t>836365</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>56,55%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>54,6%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>58,53%</t>
         </is>
       </c>
     </row>
@@ -4500,22 +4500,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2731</t>
+          <t>1630</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1380477</t>
+          <t>678399</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1380477</t>
+          <t>678399</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1380477</t>
+          <t>678399</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -4535,22 +4535,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2644</t>
+          <t>1856</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1421442</t>
+          <t>750447</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1421442</t>
+          <t>750447</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1421442</t>
+          <t>750447</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -4570,22 +4570,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>5375</t>
+          <t>3486</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>2801919</t>
+          <t>1428845</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>2801919</t>
+          <t>1428845</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>2801919</t>
+          <t>1428845</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -4671,7 +4671,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de trafico intenso en Barcelona (tasa de respuesta: 99,52%)</t>
+          <t>Percepción de trafico intenso en C.Valenciana (tasa de respuesta: 93,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4856,107 +4856,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>440</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21956</t>
+          <t>163147</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13918</t>
+          <t>153520</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>31844</t>
+          <t>172618</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>77,45%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>72,88%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>32,85%</t>
+          <t>81,95%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>469</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>35172</t>
+          <t>197445</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>26844</t>
+          <t>187436</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>45084</t>
+          <t>205643</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>30,65%</t>
+          <t>79,04%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>23,4%</t>
+          <t>75,04%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>39,29%</t>
+          <t>82,33%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>909</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>57128</t>
+          <t>360592</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>45011</t>
+          <t>346715</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>69362</t>
+          <t>372921</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>26,99%</t>
+          <t>78,32%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>75,3%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>32,77%</t>
+          <t>80,99%</t>
         </is>
       </c>
     </row>
@@ -4969,107 +4969,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16503</t>
+          <t>35591</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9830</t>
+          <t>27021</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27219</t>
+          <t>45442</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,08%</t>
+          <t>21,57%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15528</t>
+          <t>37297</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10336</t>
+          <t>30209</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23768</t>
+          <t>45858</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>20,72%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>169</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>32031</t>
+          <t>72888</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>22729</t>
+          <t>62154</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>44831</t>
+          <t>84915</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>15,83%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>18,44%</t>
         </is>
       </c>
     </row>
@@ -5082,107 +5082,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>58471</t>
+          <t>11911</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>47419</t>
+          <t>7009</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>68251</t>
+          <t>17496</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>60,32%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>48,92%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>70,41%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>64037</t>
+          <t>15046</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>54351</t>
+          <t>10306</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>73308</t>
+          <t>21272</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>55,81%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>47,37%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>63,89%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>61</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>122508</t>
+          <t>26957</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>107723</t>
+          <t>20224</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>135801</t>
+          <t>34529</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>57,88%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>50,89%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>64,16%</t>
+          <t>7,5%</t>
         </is>
       </c>
     </row>
@@ -5195,22 +5195,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>545</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>96930</t>
+          <t>210649</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>96930</t>
+          <t>210649</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>96930</t>
+          <t>210649</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -5230,22 +5230,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>594</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>114737</t>
+          <t>249788</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>114737</t>
+          <t>249788</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>114737</t>
+          <t>249788</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -5265,22 +5265,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>1139</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>211667</t>
+          <t>460437</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>211667</t>
+          <t>460437</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>211667</t>
+          <t>460437</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -5312,107 +5312,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>1158</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>118244</t>
+          <t>596109</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>105850</t>
+          <t>576253</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>131079</t>
+          <t>614031</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>33,13%</t>
+          <t>74,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>29,66%</t>
+          <t>72,13%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>36,73%</t>
+          <t>76,85%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>992</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>102652</t>
+          <t>547649</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>91534</t>
+          <t>527046</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>114870</t>
+          <t>567662</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>29,11%</t>
+          <t>71,45%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>25,96%</t>
+          <t>68,76%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>32,58%</t>
+          <t>74,06%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>2150</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>220896</t>
+          <t>1143757</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>203145</t>
+          <t>1117384</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>239647</t>
+          <t>1171242</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>31,14%</t>
+          <t>73,06%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>28,63%</t>
+          <t>71,38%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>33,78%</t>
+          <t>74,82%</t>
         </is>
       </c>
     </row>
@@ -5425,107 +5425,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>295</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>45997</t>
+          <t>156194</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37119</t>
+          <t>139565</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>54632</t>
+          <t>174640</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>19,55%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>17,47%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>21,86%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>267</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>36532</t>
+          <t>149501</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28660</t>
+          <t>132095</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>44804</t>
+          <t>167413</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>21,84%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>562</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>82528</t>
+          <t>305695</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>71593</t>
+          <t>283264</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>94601</t>
+          <t>331095</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>19,53%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>21,15%</t>
         </is>
       </c>
     </row>
@@ -5538,107 +5538,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>192618</t>
+          <t>46652</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>179202</t>
+          <t>36880</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>205721</t>
+          <t>57447</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>53,98%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>50,22%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>57,65%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>110</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>213395</t>
+          <t>69333</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>201590</t>
+          <t>56340</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>226673</t>
+          <t>83138</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>60,52%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>57,18%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>64,29%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>908</t>
+          <t>199</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>406013</t>
+          <t>115985</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>386344</t>
+          <t>99689</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>423012</t>
+          <t>134097</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>57,23%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>54,46%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>59,63%</t>
+          <t>8,57%</t>
         </is>
       </c>
     </row>
@@ -5651,22 +5651,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>1542</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>356858</t>
+          <t>798955</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>356858</t>
+          <t>798955</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>356858</t>
+          <t>798955</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -5686,22 +5686,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>803</t>
+          <t>1369</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>352579</t>
+          <t>766483</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>352579</t>
+          <t>766483</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>352579</t>
+          <t>766483</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -5721,22 +5721,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1598</t>
+          <t>2911</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>709437</t>
+          <t>1565437</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>709437</t>
+          <t>1565437</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>709437</t>
+          <t>1565437</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -5768,107 +5768,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>476</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>78790</t>
+          <t>269239</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>69533</t>
+          <t>254402</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>89705</t>
+          <t>283519</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>35,08%</t>
+          <t>72,6%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>30,96%</t>
+          <t>68,6%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>39,94%</t>
+          <t>76,45%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>489</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>91686</t>
+          <t>283084</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>79635</t>
+          <t>266523</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>103241</t>
+          <t>297952</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>32,38%</t>
+          <t>69,87%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>28,13%</t>
+          <t>65,78%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>36,46%</t>
+          <t>73,54%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>965</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>170476</t>
+          <t>552323</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>155442</t>
+          <t>530365</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>185077</t>
+          <t>571765</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>33,58%</t>
+          <t>71,17%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>30,61%</t>
+          <t>68,34%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>36,45%</t>
+          <t>73,68%</t>
         </is>
       </c>
     </row>
@@ -5881,107 +5881,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>134</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23739</t>
+          <t>78654</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18073</t>
+          <t>66134</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>30648</t>
+          <t>92685</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>21,21%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>17,83%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>24,99%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>136</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>33992</t>
+          <t>83908</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>27028</t>
+          <t>71234</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>42777</t>
+          <t>98663</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>20,71%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>17,58%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>24,35%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>270</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>57731</t>
+          <t>162562</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>48836</t>
+          <t>144599</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>69935</t>
+          <t>181778</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>20,95%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>23,42%</t>
         </is>
       </c>
     </row>
@@ -5994,107 +5994,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>122081</t>
+          <t>22981</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>111250</t>
+          <t>15321</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>132158</t>
+          <t>31702</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>54,35%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>49,53%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>58,84%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>157454</t>
+          <t>38178</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>145308</t>
+          <t>29143</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>169437</t>
+          <t>48742</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>55,61%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>51,32%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>59,84%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>90</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>279535</t>
+          <t>61159</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>263287</t>
+          <t>48833</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>295586</t>
+          <t>75601</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>55,05%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>51,85%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>58,22%</t>
+          <t>9,74%</t>
         </is>
       </c>
     </row>
@@ -6107,22 +6107,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>644</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>370874</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>370874</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>370874</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -6142,22 +6142,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>762</t>
+          <t>681</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>283131</t>
+          <t>405171</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>283131</t>
+          <t>405171</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>283131</t>
+          <t>405171</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -6177,22 +6177,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1405</t>
+          <t>1325</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>507741</t>
+          <t>776045</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>507741</t>
+          <t>776045</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>507741</t>
+          <t>776045</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -6224,107 +6224,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>2074</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>218990</t>
+          <t>1028495</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>202153</t>
+          <t>1001656</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>238030</t>
+          <t>1053529</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>32,28%</t>
+          <t>74,5%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>29,8%</t>
+          <t>72,56%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>35,09%</t>
+          <t>76,32%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>229510</t>
+          <t>1028178</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>211119</t>
+          <t>998821</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>248012</t>
+          <t>1053490</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>30,58%</t>
+          <t>72,33%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>28,13%</t>
+          <t>70,27%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>33,05%</t>
+          <t>74,11%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>1063</t>
+          <t>4024</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>448500</t>
+          <t>2056673</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>421835</t>
+          <t>2019366</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>474541</t>
+          <t>2093926</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>31,39%</t>
+          <t>73,4%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>72,07%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>33,21%</t>
+          <t>74,73%</t>
         </is>
       </c>
     </row>
@@ -6337,107 +6337,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>508</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>86239</t>
+          <t>270439</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>73388</t>
+          <t>246930</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>101686</t>
+          <t>293820</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>19,59%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>17,89%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>21,28%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>493</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>86051</t>
+          <t>270706</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>73925</t>
+          <t>248800</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>99633</t>
+          <t>294213</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>20,7%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>1001</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>172290</t>
+          <t>541145</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>154050</t>
+          <t>508818</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>192298</t>
+          <t>572346</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>19,31%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>20,43%</t>
         </is>
       </c>
     </row>
@@ -6450,107 +6450,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>905</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>373170</t>
+          <t>81544</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>352476</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>392154</t>
+          <t>96965</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>55,01%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>51,96%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>57,81%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1096</t>
+          <t>201</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>434886</t>
+          <t>122558</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>415102</t>
+          <t>106325</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>453519</t>
+          <t>140089</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>57,95%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>55,31%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>60,43%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>350</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>808056</t>
+          <t>204101</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>780155</t>
+          <t>181386</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>836365</t>
+          <t>229330</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>56,55%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>54,6%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>58,53%</t>
+          <t>8,18%</t>
         </is>
       </c>
     </row>
@@ -6563,22 +6563,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1630</t>
+          <t>2731</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>678399</t>
+          <t>1380477</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>678399</t>
+          <t>1380477</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>678399</t>
+          <t>1380477</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -6598,22 +6598,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1856</t>
+          <t>2644</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>750447</t>
+          <t>1421442</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>750447</t>
+          <t>1421442</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>750447</t>
+          <t>1421442</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -6633,22 +6633,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>3486</t>
+          <t>5375</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1428845</t>
+          <t>2801919</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1428845</t>
+          <t>2801919</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1428845</t>
+          <t>2801919</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
